--- a/sources/tables/research_source.xlsx
+++ b/sources/tables/research_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinGigaChat\sources\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A6167-2F06-4C07-9F61-DB211D4B6E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A606AF7-EA3B-41C0-8505-FF2CD286A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,17 +48,25 @@
     <t>PDF file</t>
   </si>
   <si>
-    <t>/asd/qwe/rt123</t>
+    <t>https://research.sberbank-cib.com/group/guest/money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,7 +380,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -404,11 +415,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5E8803CA-56B5-4FE6-9D9D-8B545DA926F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>